--- a/data/Temuco.xlsx
+++ b/data/Temuco.xlsx
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Extracción de áridos, procesamiento y producción de asfalto, Bitumix CVV, Temuco</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2498,16 +2498,16 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>ESPECIALIDADES ASFALTICAS BITUMIX CVV</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2516,12 +2516,12 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970785&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Extracción de áridos, procesamiento y producción de asfalto, Bitumix CVV, Temuco</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2546,16 +2546,16 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>ESPECIALIDADES ASFALTICAS BITUMIX CVV</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2564,12 +2564,12 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970785&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Modificación del Sistema de Conducción de Efluentes de la Planta de Tratamiento de Aguas Servidas de Temuco (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8162,16 +8162,16 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Aguas Araucanía S.A</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>655</v>
+        <v>500</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8180,12 +8180,12 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1374050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Modificación del Sistema de Conducción de Efluentes de la Planta de Tratamiento de Aguas Servidas de Temuco (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8210,16 +8210,16 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Aguas Araucanía S.A</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>500</v>
+        <v>655</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -8228,12 +8228,12 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1374050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -11460,7 +11460,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Temuco 2000 sub zona C-3 y sub zona C-4</t>
+          <t>Modificación Plan Regulador de Temuco</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11493,7 +11493,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131922315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11508,7 +11508,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador de Temuco</t>
+          <t>Modificación Plan Regulador Temuco 2000 sub zona C-3 y sub zona C-4</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11541,7 +11541,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131922315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">

--- a/data/Temuco.xlsx
+++ b/data/Temuco.xlsx
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Extracción de áridos, procesamiento y producción de asfalto, Bitumix CVV, Temuco</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2546,16 +2546,16 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>ESPECIALIDADES ASFALTICAS BITUMIX CVV</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2564,12 +2564,12 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970785&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Extracción de áridos, procesamiento y producción de asfalto, Bitumix CVV, Temuco</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2594,16 +2594,16 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>ESPECIALIDADES ASFALTICAS BITUMIX CVV</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2612,12 +2612,12 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970785&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Modificación del Sistema de Conducción de Efluentes de la Planta de Tratamiento de Aguas Servidas de Temuco (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8210,16 +8210,16 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Aguas Araucanía S.A</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>500</v>
+        <v>655</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -8228,12 +8228,12 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1374050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Modificación del Sistema de Conducción de Efluentes de la Planta de Tratamiento de Aguas Servidas de Temuco (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8258,16 +8258,16 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Aguas Araucanía S.A</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>655</v>
+        <v>500</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -8276,12 +8276,12 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1374050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -11508,7 +11508,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador de Temuco</t>
+          <t>Modificación Plan Regulador Temuco 2000 sub zona C-3 y sub zona C-4</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11541,7 +11541,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131922315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11556,7 +11556,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Temuco 2000 sub zona C-3 y sub zona C-4</t>
+          <t>Modificación Plan Regulador de Temuco</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11589,7 +11589,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131922315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -13276,7 +13276,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Terminal Rodovario de la Araucanía</t>
+          <t>Extracción de Áridos Rio Cautin</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -13291,11 +13291,11 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>Inmobiliaria Andina</t>
+          <t>Agrícola y Comercial Pirineos Ltda.</t>
         </is>
       </c>
       <c r="F270" t="n">
-        <v>10</v>
+        <v>610</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
@@ -13309,7 +13309,7 @@
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
@@ -13324,7 +13324,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Rio Cautin</t>
+          <t>Terminal Rodovario de la Araucanía</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -13339,11 +13339,11 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>Agrícola y Comercial Pirineos Ltda.</t>
+          <t>Inmobiliaria Andina</t>
         </is>
       </c>
       <c r="F271" t="n">
-        <v>610</v>
+        <v>10</v>
       </c>
       <c r="G271" t="inlineStr">
         <is>
@@ -13357,7 +13357,7 @@
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">

--- a/data/Temuco.xlsx
+++ b/data/Temuco.xlsx
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Extracción de áridos, procesamiento y producción de asfalto, Bitumix CVV, Temuco</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2546,16 +2546,16 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>ESPECIALIDADES ASFALTICAS BITUMIX CVV</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2564,12 +2564,12 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970785&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Extracción de áridos, procesamiento y producción de asfalto, Bitumix CVV, Temuco</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2594,16 +2594,16 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>ESPECIALIDADES ASFALTICAS BITUMIX CVV</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2612,12 +2612,12 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970785&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Modificación del Sistema de Conducción de Efluentes de la Planta de Tratamiento de Aguas Servidas de Temuco (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8210,16 +8210,16 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Aguas Araucanía S.A</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>655</v>
+        <v>500</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -8228,12 +8228,12 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1374050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Modificación del Sistema de Conducción de Efluentes de la Planta de Tratamiento de Aguas Servidas de Temuco (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8258,16 +8258,16 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Aguas Araucanía S.A</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>500</v>
+        <v>655</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -8276,12 +8276,12 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1374050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -11508,7 +11508,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Temuco 2000 sub zona C-3 y sub zona C-4</t>
+          <t>Modificación Plan Regulador de Temuco</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11541,7 +11541,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131922315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11556,7 +11556,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador de Temuco</t>
+          <t>Modificación Plan Regulador Temuco 2000 sub zona C-3 y sub zona C-4</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11589,7 +11589,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131922315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -13276,7 +13276,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Rio Cautin</t>
+          <t>Terminal Rodovario de la Araucanía</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -13291,11 +13291,11 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>Agrícola y Comercial Pirineos Ltda.</t>
+          <t>Inmobiliaria Andina</t>
         </is>
       </c>
       <c r="F270" t="n">
-        <v>610</v>
+        <v>10</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
@@ -13309,7 +13309,7 @@
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
@@ -13324,7 +13324,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Terminal Rodovario de la Araucanía</t>
+          <t>Extracción de Áridos Rio Cautin</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -13339,11 +13339,11 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>Inmobiliaria Andina</t>
+          <t>Agrícola y Comercial Pirineos Ltda.</t>
         </is>
       </c>
       <c r="F271" t="n">
-        <v>10</v>
+        <v>610</v>
       </c>
       <c r="G271" t="inlineStr">
         <is>
@@ -13357,7 +13357,7 @@
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">

--- a/data/Temuco.xlsx
+++ b/data/Temuco.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>10/02/2022</t>
+          <t>17/02/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Extracción de áridos, procesamiento y producción de asfalto, Bitumix CVV, Temuco</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2546,16 +2546,16 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>ESPECIALIDADES ASFALTICAS BITUMIX CVV</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2564,12 +2564,12 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970785&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Extracción de áridos, procesamiento y producción de asfalto, Bitumix CVV, Temuco</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2594,16 +2594,16 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>ESPECIALIDADES ASFALTICAS BITUMIX CVV</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2612,12 +2612,12 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970785&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Modificación del Sistema de Conducción de Efluentes de la Planta de Tratamiento de Aguas Servidas de Temuco (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8210,16 +8210,16 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Aguas Araucanía S.A</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>500</v>
+        <v>655</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -8228,12 +8228,12 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1374050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Modificación del Sistema de Conducción de Efluentes de la Planta de Tratamiento de Aguas Servidas de Temuco (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8258,16 +8258,16 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Aguas Araucanía S.A</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>655</v>
+        <v>500</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -8276,12 +8276,12 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1374050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -11508,7 +11508,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador de Temuco</t>
+          <t>Modificación Plan Regulador Temuco 2000 sub zona C-3 y sub zona C-4</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11541,7 +11541,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131922315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11556,7 +11556,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Temuco 2000 sub zona C-3 y sub zona C-4</t>
+          <t>Modificación Plan Regulador de Temuco</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11589,7 +11589,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131922315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -13276,7 +13276,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Terminal Rodovario de la Araucanía</t>
+          <t>Extracción de Áridos Rio Cautin</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -13291,11 +13291,11 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>Inmobiliaria Andina</t>
+          <t>Agrícola y Comercial Pirineos Ltda.</t>
         </is>
       </c>
       <c r="F270" t="n">
-        <v>10</v>
+        <v>610</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
@@ -13309,7 +13309,7 @@
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
@@ -13324,7 +13324,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Rio Cautin</t>
+          <t>Terminal Rodovario de la Araucanía</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -13339,11 +13339,11 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>Agrícola y Comercial Pirineos Ltda.</t>
+          <t>Inmobiliaria Andina</t>
         </is>
       </c>
       <c r="F271" t="n">
-        <v>610</v>
+        <v>10</v>
       </c>
       <c r="G271" t="inlineStr">
         <is>
@@ -13357,7 +13357,7 @@
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">

--- a/data/Temuco.xlsx
+++ b/data/Temuco.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Extracción de áridos, procesamiento y producción de asfalto, Bitumix CVV, Temuco</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2546,16 +2546,16 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>ESPECIALIDADES ASFALTICAS BITUMIX CVV</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2564,12 +2564,12 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970785&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Extracción de áridos, procesamiento y producción de asfalto, Bitumix CVV, Temuco</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2594,16 +2594,16 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>ESPECIALIDADES ASFALTICAS BITUMIX CVV</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2612,12 +2612,12 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970785&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Modificación del Sistema de Conducción de Efluentes de la Planta de Tratamiento de Aguas Servidas de Temuco (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8210,16 +8210,16 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Aguas Araucanía S.A</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>655</v>
+        <v>500</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -8228,12 +8228,12 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1374050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Modificación del Sistema de Conducción de Efluentes de la Planta de Tratamiento de Aguas Servidas de Temuco (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8258,16 +8258,16 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Aguas Araucanía S.A</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>500</v>
+        <v>655</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -8276,12 +8276,12 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1374050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -11508,7 +11508,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Temuco 2000 sub zona C-3 y sub zona C-4</t>
+          <t>Modificación Plan Regulador de Temuco</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11541,7 +11541,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131922315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11556,7 +11556,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador de Temuco</t>
+          <t>Modificación Plan Regulador Temuco 2000 sub zona C-3 y sub zona C-4</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11589,7 +11589,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131922315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -13276,7 +13276,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Rio Cautin</t>
+          <t>Terminal Rodovario de la Araucanía</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -13291,11 +13291,11 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>Agrícola y Comercial Pirineos Ltda.</t>
+          <t>Inmobiliaria Andina</t>
         </is>
       </c>
       <c r="F270" t="n">
-        <v>610</v>
+        <v>10</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
@@ -13309,7 +13309,7 @@
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
@@ -13324,7 +13324,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Terminal Rodovario de la Araucanía</t>
+          <t>Extracción de Áridos Rio Cautin</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -13339,11 +13339,11 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>Inmobiliaria Andina</t>
+          <t>Agrícola y Comercial Pirineos Ltda.</t>
         </is>
       </c>
       <c r="F271" t="n">
-        <v>10</v>
+        <v>610</v>
       </c>
       <c r="G271" t="inlineStr">
         <is>
@@ -13357,7 +13357,7 @@
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">

--- a/data/Temuco.xlsx
+++ b/data/Temuco.xlsx
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Extracción de áridos, procesamiento y producción de asfalto, Bitumix CVV, Temuco</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2546,16 +2546,16 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>ESPECIALIDADES ASFALTICAS BITUMIX CVV</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2564,12 +2564,12 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970785&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Extracción de áridos, procesamiento y producción de asfalto, Bitumix CVV, Temuco</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2594,16 +2594,16 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>ESPECIALIDADES ASFALTICAS BITUMIX CVV</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2612,12 +2612,12 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970785&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Modificación del Sistema de Conducción de Efluentes de la Planta de Tratamiento de Aguas Servidas de Temuco (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8210,16 +8210,16 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Aguas Araucanía S.A</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>500</v>
+        <v>655</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -8228,12 +8228,12 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1374050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Modificación del Sistema de Conducción de Efluentes de la Planta de Tratamiento de Aguas Servidas de Temuco (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8258,16 +8258,16 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Aguas Araucanía S.A</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>655</v>
+        <v>500</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -8276,12 +8276,12 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1374050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -11508,7 +11508,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador de Temuco</t>
+          <t>Modificación Plan Regulador Temuco 2000 sub zona C-3 y sub zona C-4</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11541,7 +11541,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131922315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11556,7 +11556,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Temuco 2000 sub zona C-3 y sub zona C-4</t>
+          <t>Modificación Plan Regulador de Temuco</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11589,7 +11589,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131922315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">

--- a/data/Temuco.xlsx
+++ b/data/Temuco.xlsx
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Extracción de áridos, procesamiento y producción de asfalto, Bitumix CVV, Temuco</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2546,16 +2546,16 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>ESPECIALIDADES ASFALTICAS BITUMIX CVV</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2564,12 +2564,12 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970785&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Extracción de áridos, procesamiento y producción de asfalto, Bitumix CVV, Temuco</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2594,16 +2594,16 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>ESPECIALIDADES ASFALTICAS BITUMIX CVV</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2612,12 +2612,12 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970785&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Modificación del Sistema de Conducción de Efluentes de la Planta de Tratamiento de Aguas Servidas de Temuco (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8210,16 +8210,16 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Aguas Araucanía S.A</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>655</v>
+        <v>500</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -8228,12 +8228,12 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1374050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Modificación del Sistema de Conducción de Efluentes de la Planta de Tratamiento de Aguas Servidas de Temuco (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8258,16 +8258,16 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Aguas Araucanía S.A</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>500</v>
+        <v>655</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -8276,12 +8276,12 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1374050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -11508,7 +11508,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Temuco 2000 sub zona C-3 y sub zona C-4</t>
+          <t>Modificación Plan Regulador de Temuco</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11541,7 +11541,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131922315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11556,7 +11556,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador de Temuco</t>
+          <t>Modificación Plan Regulador Temuco 2000 sub zona C-3 y sub zona C-4</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11589,7 +11589,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131922315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">

--- a/data/Temuco.xlsx
+++ b/data/Temuco.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Centro Bello</t>
+          <t>Condominio Parque Costanera II</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>INMOBILIARIA PROVIDENCIA SANTIAGO SPA</t>
+          <t>Inmobiliaria Isiete Araucania IX SpA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>27000</v>
+        <v>13500</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>14/04/2022</t>
+          <t>19/04/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155647449&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155616970&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Condominio Parque Costanera II</t>
+          <t>Centro Bello</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,15 +487,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Inmobiliaria Isiete Araucania IX SpA</t>
+          <t>INMOBILIARIA PROVIDENCIA SANTIAGO SPA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>13500</v>
+        <v>27000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>12/04/2022</t>
+          <t>14/04/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155616970&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155647449&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Extracción de áridos, procesamiento y producción de asfalto, Bitumix CVV, Temuco</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2642,16 +2642,16 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>ESPECIALIDADES ASFALTICAS BITUMIX CVV</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2660,12 +2660,12 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970785&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Extracción de áridos, procesamiento y producción de asfalto, Bitumix CVV, Temuco</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2690,16 +2690,16 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>ESPECIALIDADES ASFALTICAS BITUMIX CVV</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2708,12 +2708,12 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970785&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,11 +5191,11 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5204,12 +5204,12 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5239,11 +5239,11 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5252,12 +5252,12 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Modificación del Sistema de Conducción de Efluentes de la Planta de Tratamiento de Aguas Servidas de Temuco (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8306,16 +8306,16 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Aguas Araucanía S.A</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>500</v>
+        <v>655</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -8324,12 +8324,12 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1374050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Modificación del Sistema de Conducción de Efluentes de la Planta de Tratamiento de Aguas Servidas de Temuco (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8354,16 +8354,16 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Aguas Araucanía S.A</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>655</v>
+        <v>500</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -8372,12 +8372,12 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1374050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -13372,7 +13372,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Terminal Rodovario de la Araucanía</t>
+          <t>Extracción de Áridos Rio Cautin</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -13387,11 +13387,11 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>Inmobiliaria Andina</t>
+          <t>Agrícola y Comercial Pirineos Ltda.</t>
         </is>
       </c>
       <c r="F272" t="n">
-        <v>10</v>
+        <v>610</v>
       </c>
       <c r="G272" t="inlineStr">
         <is>
@@ -13405,7 +13405,7 @@
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
@@ -13420,7 +13420,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Rio Cautin</t>
+          <t>Terminal Rodovario de la Araucanía</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -13435,11 +13435,11 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>Agrícola y Comercial Pirineos Ltda.</t>
+          <t>Inmobiliaria Andina</t>
         </is>
       </c>
       <c r="F273" t="n">
-        <v>610</v>
+        <v>10</v>
       </c>
       <c r="G273" t="inlineStr">
         <is>
@@ -13453,7 +13453,7 @@
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">

--- a/data/Temuco.xlsx
+++ b/data/Temuco.xlsx
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Extracción de áridos, procesamiento y producción de asfalto, Bitumix CVV, Temuco</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2642,16 +2642,16 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>ESPECIALIDADES ASFALTICAS BITUMIX CVV</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2660,12 +2660,12 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970785&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Extracción de áridos, procesamiento y producción de asfalto, Bitumix CVV, Temuco</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2690,16 +2690,16 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>ESPECIALIDADES ASFALTICAS BITUMIX CVV</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2708,12 +2708,12 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970785&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,11 +5191,11 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5204,12 +5204,12 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5239,11 +5239,11 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5252,12 +5252,12 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Modificación del Sistema de Conducción de Efluentes de la Planta de Tratamiento de Aguas Servidas de Temuco (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8306,16 +8306,16 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Aguas Araucanía S.A</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>655</v>
+        <v>500</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -8324,12 +8324,12 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1374050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Modificación del Sistema de Conducción de Efluentes de la Planta de Tratamiento de Aguas Servidas de Temuco (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8354,16 +8354,16 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Aguas Araucanía S.A</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>500</v>
+        <v>655</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -8372,12 +8372,12 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1374050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -13372,7 +13372,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Rio Cautin</t>
+          <t>Terminal Rodovario de la Araucanía</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -13387,11 +13387,11 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>Agrícola y Comercial Pirineos Ltda.</t>
+          <t>Inmobiliaria Andina</t>
         </is>
       </c>
       <c r="F272" t="n">
-        <v>610</v>
+        <v>10</v>
       </c>
       <c r="G272" t="inlineStr">
         <is>
@@ -13405,7 +13405,7 @@
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
@@ -13420,7 +13420,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Terminal Rodovario de la Araucanía</t>
+          <t>Extracción de Áridos Rio Cautin</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -13435,11 +13435,11 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>Inmobiliaria Andina</t>
+          <t>Agrícola y Comercial Pirineos Ltda.</t>
         </is>
       </c>
       <c r="F273" t="n">
-        <v>10</v>
+        <v>610</v>
       </c>
       <c r="G273" t="inlineStr">
         <is>
@@ -13453,7 +13453,7 @@
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">

--- a/data/Temuco.xlsx
+++ b/data/Temuco.xlsx
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Extracción de áridos, procesamiento y producción de asfalto, Bitumix CVV, Temuco</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2642,16 +2642,16 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>ESPECIALIDADES ASFALTICAS BITUMIX CVV</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2660,12 +2660,12 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970785&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Extracción de áridos, procesamiento y producción de asfalto, Bitumix CVV, Temuco</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2690,16 +2690,16 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>ESPECIALIDADES ASFALTICAS BITUMIX CVV</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2708,12 +2708,12 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970785&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,11 +5191,11 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5204,12 +5204,12 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5239,11 +5239,11 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5252,12 +5252,12 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Modificación del Sistema de Conducción de Efluentes de la Planta de Tratamiento de Aguas Servidas de Temuco (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8306,16 +8306,16 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Aguas Araucanía S.A</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>500</v>
+        <v>655</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -8324,12 +8324,12 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1374050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Modificación del Sistema de Conducción de Efluentes de la Planta de Tratamiento de Aguas Servidas de Temuco (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8354,16 +8354,16 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Aguas Araucanía S.A</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>655</v>
+        <v>500</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -8372,12 +8372,12 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1374050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -13372,7 +13372,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Terminal Rodovario de la Araucanía</t>
+          <t>Extracción de Áridos Rio Cautin</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -13387,11 +13387,11 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>Inmobiliaria Andina</t>
+          <t>Agrícola y Comercial Pirineos Ltda.</t>
         </is>
       </c>
       <c r="F272" t="n">
-        <v>10</v>
+        <v>610</v>
       </c>
       <c r="G272" t="inlineStr">
         <is>
@@ -13405,7 +13405,7 @@
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
@@ -13420,7 +13420,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Rio Cautin</t>
+          <t>Terminal Rodovario de la Araucanía</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -13435,11 +13435,11 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>Agrícola y Comercial Pirineos Ltda.</t>
+          <t>Inmobiliaria Andina</t>
         </is>
       </c>
       <c r="F273" t="n">
-        <v>610</v>
+        <v>10</v>
       </c>
       <c r="G273" t="inlineStr">
         <is>
@@ -13453,7 +13453,7 @@
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">

--- a/data/Temuco.xlsx
+++ b/data/Temuco.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Condominio Parque Costanera II</t>
+          <t>Centro Bello</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,15 +439,15 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Inmobiliaria Isiete Araucania IX SpA</t>
+          <t>INMOBILIARIA PROVIDENCIA SANTIAGO SPA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>13500</v>
+        <v>27000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>19/04/2022</t>
+          <t>21/04/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -457,7 +457,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155616970&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155647449&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Centro Bello</t>
+          <t>Condominio Parque Costanera II</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>INMOBILIARIA PROVIDENCIA SANTIAGO SPA</t>
+          <t>Inmobiliaria Isiete Araucania IX SpA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>27000</v>
+        <v>13500</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>14/04/2022</t>
+          <t>19/04/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155647449&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155616970&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Extracción de áridos, procesamiento y producción de asfalto, Bitumix CVV, Temuco</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2642,16 +2642,16 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>ESPECIALIDADES ASFALTICAS BITUMIX CVV</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2660,12 +2660,12 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970785&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Extracción de áridos, procesamiento y producción de asfalto, Bitumix CVV, Temuco</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2690,16 +2690,16 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>ESPECIALIDADES ASFALTICAS BITUMIX CVV</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2708,12 +2708,12 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970785&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,11 +5191,11 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5204,12 +5204,12 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5239,11 +5239,11 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5252,12 +5252,12 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Modificación del Sistema de Conducción de Efluentes de la Planta de Tratamiento de Aguas Servidas de Temuco (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8306,16 +8306,16 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Aguas Araucanía S.A</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>655</v>
+        <v>500</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -8324,12 +8324,12 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1374050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Modificación del Sistema de Conducción de Efluentes de la Planta de Tratamiento de Aguas Servidas de Temuco (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8354,16 +8354,16 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Aguas Araucanía S.A</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>500</v>
+        <v>655</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -8372,12 +8372,12 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1374050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -13372,7 +13372,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Rio Cautin</t>
+          <t>Terminal Rodovario de la Araucanía</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -13387,11 +13387,11 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>Agrícola y Comercial Pirineos Ltda.</t>
+          <t>Inmobiliaria Andina</t>
         </is>
       </c>
       <c r="F272" t="n">
-        <v>610</v>
+        <v>10</v>
       </c>
       <c r="G272" t="inlineStr">
         <is>
@@ -13405,7 +13405,7 @@
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
@@ -13420,7 +13420,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Terminal Rodovario de la Araucanía</t>
+          <t>Extracción de Áridos Rio Cautin</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -13435,11 +13435,11 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>Inmobiliaria Andina</t>
+          <t>Agrícola y Comercial Pirineos Ltda.</t>
         </is>
       </c>
       <c r="F273" t="n">
-        <v>10</v>
+        <v>610</v>
       </c>
       <c r="G273" t="inlineStr">
         <is>
@@ -13453,7 +13453,7 @@
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">

--- a/data/Temuco.xlsx
+++ b/data/Temuco.xlsx
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Extracción de áridos, procesamiento y producción de asfalto, Bitumix CVV, Temuco</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2738,16 +2738,16 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>ESPECIALIDADES ASFALTICAS BITUMIX CVV</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2756,12 +2756,12 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970785&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Extracción de áridos, procesamiento y producción de asfalto, Bitumix CVV, Temuco</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2786,16 +2786,16 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>ESPECIALIDADES ASFALTICAS BITUMIX CVV</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2804,12 +2804,12 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970785&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Modificación del Sistema de Conducción de Efluentes de la Planta de Tratamiento de Aguas Servidas de Temuco (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8402,16 +8402,16 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Aguas Araucanía S.A</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>500</v>
+        <v>655</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
@@ -8420,12 +8420,12 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1374050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Modificación del Sistema de Conducción de Efluentes de la Planta de Tratamiento de Aguas Servidas de Temuco (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8450,16 +8450,16 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Aguas Araucanía S.A</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>655</v>
+        <v>500</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -8468,12 +8468,12 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1374050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -11700,7 +11700,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador de Temuco</t>
+          <t>Modificación Plan Regulador Temuco 2000 sub zona C-3 y sub zona C-4</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11733,7 +11733,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131922315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -11748,7 +11748,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Temuco 2000 sub zona C-3 y sub zona C-4</t>
+          <t>Modificación Plan Regulador de Temuco</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11781,7 +11781,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131922315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">

--- a/data/Temuco.xlsx
+++ b/data/Temuco.xlsx
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Extracción de áridos, procesamiento y producción de asfalto, Bitumix CVV, Temuco</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2738,16 +2738,16 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>ESPECIALIDADES ASFALTICAS BITUMIX CVV</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2756,12 +2756,12 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970785&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Extracción de áridos, procesamiento y producción de asfalto, Bitumix CVV, Temuco</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2786,16 +2786,16 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>ESPECIALIDADES ASFALTICAS BITUMIX CVV</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2804,12 +2804,12 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970785&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Modificación del Sistema de Conducción de Efluentes de la Planta de Tratamiento de Aguas Servidas de Temuco (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8402,16 +8402,16 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Aguas Araucanía S.A</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>655</v>
+        <v>500</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
@@ -8420,12 +8420,12 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1374050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Modificación del Sistema de Conducción de Efluentes de la Planta de Tratamiento de Aguas Servidas de Temuco (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8450,16 +8450,16 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Aguas Araucanía S.A</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>500</v>
+        <v>655</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -8468,12 +8468,12 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1374050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -11700,7 +11700,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Temuco 2000 sub zona C-3 y sub zona C-4</t>
+          <t>Modificación Plan Regulador de Temuco</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11733,7 +11733,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131922315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -11748,7 +11748,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador de Temuco</t>
+          <t>Modificación Plan Regulador Temuco 2000 sub zona C-3 y sub zona C-4</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11781,7 +11781,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131922315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">

--- a/data/Temuco.xlsx
+++ b/data/Temuco.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">

--- a/data/Temuco.xlsx
+++ b/data/Temuco.xlsx
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Extracción de áridos, procesamiento y producción de asfalto, Bitumix CVV, Temuco</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2738,16 +2738,16 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>ESPECIALIDADES ASFALTICAS BITUMIX CVV</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2756,12 +2756,12 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970785&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Extracción de áridos, procesamiento y producción de asfalto, Bitumix CVV, Temuco</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2786,16 +2786,16 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>ESPECIALIDADES ASFALTICAS BITUMIX CVV</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2804,12 +2804,12 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970785&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,11 +5287,11 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -5300,12 +5300,12 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,11 +5335,11 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -5348,12 +5348,12 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Modificación del Sistema de Conducción de Efluentes de la Planta de Tratamiento de Aguas Servidas de Temuco (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8402,16 +8402,16 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Aguas Araucanía S.A</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>500</v>
+        <v>655</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
@@ -8420,12 +8420,12 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1374050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Modificación del Sistema de Conducción de Efluentes de la Planta de Tratamiento de Aguas Servidas de Temuco (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8450,16 +8450,16 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Aguas Araucanía S.A</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>655</v>
+        <v>500</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -8468,12 +8468,12 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1374050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -11700,7 +11700,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador de Temuco</t>
+          <t>Modificación Plan Regulador Temuco 2000 sub zona C-3 y sub zona C-4</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11733,7 +11733,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131922315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -11748,7 +11748,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Temuco 2000 sub zona C-3 y sub zona C-4</t>
+          <t>Modificación Plan Regulador de Temuco</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11781,7 +11781,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131922315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -13468,7 +13468,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Terminal Rodovario de la Araucanía</t>
+          <t>Extracción de Áridos Rio Cautin</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -13483,11 +13483,11 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>Inmobiliaria Andina</t>
+          <t>Agrícola y Comercial Pirineos Ltda.</t>
         </is>
       </c>
       <c r="F274" t="n">
-        <v>10</v>
+        <v>610</v>
       </c>
       <c r="G274" t="inlineStr">
         <is>
@@ -13501,7 +13501,7 @@
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
@@ -13516,7 +13516,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Rio Cautin</t>
+          <t>Terminal Rodovario de la Araucanía</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -13531,11 +13531,11 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>Agrícola y Comercial Pirineos Ltda.</t>
+          <t>Inmobiliaria Andina</t>
         </is>
       </c>
       <c r="F275" t="n">
-        <v>610</v>
+        <v>10</v>
       </c>
       <c r="G275" t="inlineStr">
         <is>
@@ -13549,7 +13549,7 @@
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">

--- a/data/Temuco.xlsx
+++ b/data/Temuco.xlsx
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Extracción de áridos, procesamiento y producción de asfalto, Bitumix CVV, Temuco</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2738,16 +2738,16 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>ESPECIALIDADES ASFALTICAS BITUMIX CVV</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2756,12 +2756,12 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970785&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Extracción de áridos, procesamiento y producción de asfalto, Bitumix CVV, Temuco</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2786,16 +2786,16 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>ESPECIALIDADES ASFALTICAS BITUMIX CVV</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2804,12 +2804,12 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970785&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,11 +5287,11 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -5300,12 +5300,12 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,11 +5335,11 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -5348,12 +5348,12 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Modificación del Sistema de Conducción de Efluentes de la Planta de Tratamiento de Aguas Servidas de Temuco (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8402,16 +8402,16 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Aguas Araucanía S.A</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>655</v>
+        <v>500</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
@@ -8420,12 +8420,12 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1374050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Modificación del Sistema de Conducción de Efluentes de la Planta de Tratamiento de Aguas Servidas de Temuco (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8450,16 +8450,16 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Aguas Araucanía S.A</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>500</v>
+        <v>655</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -8468,12 +8468,12 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1374050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -11700,7 +11700,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Temuco 2000 sub zona C-3 y sub zona C-4</t>
+          <t>Modificación Plan Regulador de Temuco</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11733,7 +11733,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131922315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -11748,7 +11748,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador de Temuco</t>
+          <t>Modificación Plan Regulador Temuco 2000 sub zona C-3 y sub zona C-4</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11781,7 +11781,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131922315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -13468,7 +13468,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Rio Cautin</t>
+          <t>Terminal Rodovario de la Araucanía</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -13483,11 +13483,11 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>Agrícola y Comercial Pirineos Ltda.</t>
+          <t>Inmobiliaria Andina</t>
         </is>
       </c>
       <c r="F274" t="n">
-        <v>610</v>
+        <v>10</v>
       </c>
       <c r="G274" t="inlineStr">
         <is>
@@ -13501,7 +13501,7 @@
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
@@ -13516,7 +13516,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Terminal Rodovario de la Araucanía</t>
+          <t>Extracción de Áridos Rio Cautin</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -13531,11 +13531,11 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>Inmobiliaria Andina</t>
+          <t>Agrícola y Comercial Pirineos Ltda.</t>
         </is>
       </c>
       <c r="F275" t="n">
-        <v>10</v>
+        <v>610</v>
       </c>
       <c r="G275" t="inlineStr">
         <is>
@@ -13549,7 +13549,7 @@
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">

--- a/data/Temuco.xlsx
+++ b/data/Temuco.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>02/05/2022</t>
+          <t>09/05/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Temuco.xlsx
+++ b/data/Temuco.xlsx
@@ -596,7 +596,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Extracción de áridos, procesamiento y producción de asfalto, Bitumix CVV, Temuco</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2738,16 +2738,16 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>ESPECIALIDADES ASFALTICAS BITUMIX CVV</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2756,12 +2756,12 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970785&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Extracción de áridos, procesamiento y producción de asfalto, Bitumix CVV, Temuco</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2786,16 +2786,16 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>ESPECIALIDADES ASFALTICAS BITUMIX CVV</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2804,12 +2804,12 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970785&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,11 +5287,11 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -5300,12 +5300,12 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,11 +5335,11 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -5348,12 +5348,12 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Modificación del Sistema de Conducción de Efluentes de la Planta de Tratamiento de Aguas Servidas de Temuco (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8402,16 +8402,16 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Aguas Araucanía S.A</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>655</v>
+        <v>500</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
@@ -8420,12 +8420,12 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1374050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Modificación del Sistema de Conducción de Efluentes de la Planta de Tratamiento de Aguas Servidas de Temuco (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8450,16 +8450,16 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Aguas Araucanía S.A</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>500</v>
+        <v>655</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -8468,12 +8468,12 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1374050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -11700,7 +11700,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Temuco 2000 sub zona C-3 y sub zona C-4</t>
+          <t>Modificación Plan Regulador de Temuco</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11733,7 +11733,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131922315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -11748,7 +11748,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador de Temuco</t>
+          <t>Modificación Plan Regulador Temuco 2000 sub zona C-3 y sub zona C-4</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11781,7 +11781,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131922315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -13468,7 +13468,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Rio Cautin</t>
+          <t>Terminal Rodovario de la Araucanía</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -13483,11 +13483,11 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>Agrícola y Comercial Pirineos Ltda.</t>
+          <t>Inmobiliaria Andina</t>
         </is>
       </c>
       <c r="F274" t="n">
-        <v>610</v>
+        <v>10</v>
       </c>
       <c r="G274" t="inlineStr">
         <is>
@@ -13501,7 +13501,7 @@
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
@@ -13516,7 +13516,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Terminal Rodovario de la Araucanía</t>
+          <t>Extracción de Áridos Rio Cautin</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -13531,11 +13531,11 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>Inmobiliaria Andina</t>
+          <t>Agrícola y Comercial Pirineos Ltda.</t>
         </is>
       </c>
       <c r="F275" t="n">
-        <v>10</v>
+        <v>610</v>
       </c>
       <c r="G275" t="inlineStr">
         <is>
@@ -13549,7 +13549,7 @@
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">

--- a/data/Temuco.xlsx
+++ b/data/Temuco.xlsx
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Extracción de áridos, procesamiento y producción de asfalto, Bitumix CVV, Temuco</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2738,16 +2738,16 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>ESPECIALIDADES ASFALTICAS BITUMIX CVV</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2756,12 +2756,12 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970785&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Extracción de áridos, procesamiento y producción de asfalto, Bitumix CVV, Temuco</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2786,16 +2786,16 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>ESPECIALIDADES ASFALTICAS BITUMIX CVV</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2804,12 +2804,12 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970785&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,11 +5287,11 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -5300,12 +5300,12 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,11 +5335,11 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -5348,12 +5348,12 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Modificación del Sistema de Conducción de Efluentes de la Planta de Tratamiento de Aguas Servidas de Temuco (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8402,16 +8402,16 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Aguas Araucanía S.A</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>500</v>
+        <v>655</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
@@ -8420,12 +8420,12 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1374050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Modificación del Sistema de Conducción de Efluentes de la Planta de Tratamiento de Aguas Servidas de Temuco (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8450,16 +8450,16 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Aguas Araucanía S.A</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>655</v>
+        <v>500</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -8468,12 +8468,12 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1374050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -13468,7 +13468,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Terminal Rodovario de la Araucanía</t>
+          <t>Extracción de Áridos Rio Cautin</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -13483,11 +13483,11 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>Inmobiliaria Andina</t>
+          <t>Agrícola y Comercial Pirineos Ltda.</t>
         </is>
       </c>
       <c r="F274" t="n">
-        <v>10</v>
+        <v>610</v>
       </c>
       <c r="G274" t="inlineStr">
         <is>
@@ -13501,7 +13501,7 @@
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
@@ -13516,7 +13516,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Rio Cautin</t>
+          <t>Terminal Rodovario de la Araucanía</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -13531,11 +13531,11 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>Agrícola y Comercial Pirineos Ltda.</t>
+          <t>Inmobiliaria Andina</t>
         </is>
       </c>
       <c r="F275" t="n">
-        <v>610</v>
+        <v>10</v>
       </c>
       <c r="G275" t="inlineStr">
         <is>
@@ -13549,7 +13549,7 @@
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">

--- a/data/Temuco.xlsx
+++ b/data/Temuco.xlsx
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Extracción de áridos, procesamiento y producción de asfalto, Bitumix CVV, Temuco</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2738,16 +2738,16 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>ESPECIALIDADES ASFALTICAS BITUMIX CVV</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2756,12 +2756,12 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970785&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Extracción de áridos, procesamiento y producción de asfalto, Bitumix CVV, Temuco</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2786,16 +2786,16 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>ESPECIALIDADES ASFALTICAS BITUMIX CVV</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2804,12 +2804,12 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970785&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,11 +5287,11 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -5300,12 +5300,12 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,11 +5335,11 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -5348,12 +5348,12 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Modificación del Sistema de Conducción de Efluentes de la Planta de Tratamiento de Aguas Servidas de Temuco (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8402,16 +8402,16 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Aguas Araucanía S.A</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>655</v>
+        <v>500</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
@@ -8420,12 +8420,12 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1374050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Modificación del Sistema de Conducción de Efluentes de la Planta de Tratamiento de Aguas Servidas de Temuco (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8450,16 +8450,16 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Aguas Araucanía S.A</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>500</v>
+        <v>655</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -8468,12 +8468,12 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1374050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -13468,7 +13468,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Rio Cautin</t>
+          <t>Terminal Rodovario de la Araucanía</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -13483,11 +13483,11 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>Agrícola y Comercial Pirineos Ltda.</t>
+          <t>Inmobiliaria Andina</t>
         </is>
       </c>
       <c r="F274" t="n">
-        <v>610</v>
+        <v>10</v>
       </c>
       <c r="G274" t="inlineStr">
         <is>
@@ -13501,7 +13501,7 @@
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
@@ -13516,7 +13516,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Terminal Rodovario de la Araucanía</t>
+          <t>Extracción de Áridos Rio Cautin</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -13531,11 +13531,11 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>Inmobiliaria Andina</t>
+          <t>Agrícola y Comercial Pirineos Ltda.</t>
         </is>
       </c>
       <c r="F275" t="n">
-        <v>10</v>
+        <v>610</v>
       </c>
       <c r="G275" t="inlineStr">
         <is>
@@ -13549,7 +13549,7 @@
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">

--- a/data/Temuco.xlsx
+++ b/data/Temuco.xlsx
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Extracción de áridos, procesamiento y producción de asfalto, Bitumix CVV, Temuco</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2786,16 +2786,16 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>ESPECIALIDADES ASFALTICAS BITUMIX CVV</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2804,12 +2804,12 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970785&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Extracción de áridos, procesamiento y producción de asfalto, Bitumix CVV, Temuco</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2834,16 +2834,16 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>ESPECIALIDADES ASFALTICAS BITUMIX CVV</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2852,12 +2852,12 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970785&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,11 +5335,11 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -5348,12 +5348,12 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,11 +5383,11 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5396,12 +5396,12 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Modificación del Sistema de Conducción de Efluentes de la Planta de Tratamiento de Aguas Servidas de Temuco (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8450,16 +8450,16 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Aguas Araucanía S.A</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>655</v>
+        <v>500</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -8468,12 +8468,12 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1374050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Modificación del Sistema de Conducción de Efluentes de la Planta de Tratamiento de Aguas Servidas de Temuco (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8498,16 +8498,16 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Aguas Araucanía S.A</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>500</v>
+        <v>655</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -8516,12 +8516,12 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1374050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -11748,7 +11748,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Temuco 2000 sub zona C-3 y sub zona C-4</t>
+          <t>Modificación Plan Regulador de Temuco</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11781,7 +11781,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131922315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11796,7 +11796,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador de Temuco</t>
+          <t>Modificación Plan Regulador Temuco 2000 sub zona C-3 y sub zona C-4</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11829,7 +11829,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131922315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -13516,7 +13516,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Rio Cautin</t>
+          <t>Terminal Rodovario de la Araucanía</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -13531,11 +13531,11 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>Agrícola y Comercial Pirineos Ltda.</t>
+          <t>Inmobiliaria Andina</t>
         </is>
       </c>
       <c r="F275" t="n">
-        <v>610</v>
+        <v>10</v>
       </c>
       <c r="G275" t="inlineStr">
         <is>
@@ -13549,7 +13549,7 @@
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
@@ -13564,7 +13564,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Terminal Rodovario de la Araucanía</t>
+          <t>Extracción de Áridos Rio Cautin</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -13579,11 +13579,11 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>Inmobiliaria Andina</t>
+          <t>Agrícola y Comercial Pirineos Ltda.</t>
         </is>
       </c>
       <c r="F276" t="n">
-        <v>10</v>
+        <v>610</v>
       </c>
       <c r="G276" t="inlineStr">
         <is>
@@ -13597,7 +13597,7 @@
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">

--- a/data/Temuco.xlsx
+++ b/data/Temuco.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>31/05/2022</t>
+          <t>07/06/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Temuco.xlsx
+++ b/data/Temuco.xlsx
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Extracción de áridos, procesamiento y producción de asfalto, Bitumix CVV, Temuco</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2786,16 +2786,16 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>ESPECIALIDADES ASFALTICAS BITUMIX CVV</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2804,12 +2804,12 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970785&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Extracción de áridos, procesamiento y producción de asfalto, Bitumix CVV, Temuco</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2834,16 +2834,16 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>ESPECIALIDADES ASFALTICAS BITUMIX CVV</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2852,12 +2852,12 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970785&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,11 +5335,11 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -5348,12 +5348,12 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,11 +5383,11 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5396,12 +5396,12 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Modificación del Sistema de Conducción de Efluentes de la Planta de Tratamiento de Aguas Servidas de Temuco (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8450,16 +8450,16 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Aguas Araucanía S.A</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>500</v>
+        <v>655</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -8468,12 +8468,12 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1374050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Modificación del Sistema de Conducción de Efluentes de la Planta de Tratamiento de Aguas Servidas de Temuco (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8498,16 +8498,16 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Aguas Araucanía S.A</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>655</v>
+        <v>500</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -8516,12 +8516,12 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1374050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -11748,7 +11748,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador de Temuco</t>
+          <t>Modificación Plan Regulador Temuco 2000 sub zona C-3 y sub zona C-4</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11781,7 +11781,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131922315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11796,7 +11796,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Temuco 2000 sub zona C-3 y sub zona C-4</t>
+          <t>Modificación Plan Regulador de Temuco</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11829,7 +11829,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131922315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -13516,7 +13516,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Terminal Rodovario de la Araucanía</t>
+          <t>Extracción de Áridos Rio Cautin</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -13531,11 +13531,11 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>Inmobiliaria Andina</t>
+          <t>Agrícola y Comercial Pirineos Ltda.</t>
         </is>
       </c>
       <c r="F275" t="n">
-        <v>10</v>
+        <v>610</v>
       </c>
       <c r="G275" t="inlineStr">
         <is>
@@ -13549,7 +13549,7 @@
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
@@ -13564,7 +13564,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Rio Cautin</t>
+          <t>Terminal Rodovario de la Araucanía</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -13579,11 +13579,11 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>Agrícola y Comercial Pirineos Ltda.</t>
+          <t>Inmobiliaria Andina</t>
         </is>
       </c>
       <c r="F276" t="n">
-        <v>610</v>
+        <v>10</v>
       </c>
       <c r="G276" t="inlineStr">
         <is>
@@ -13597,7 +13597,7 @@
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">

--- a/data/Temuco.xlsx
+++ b/data/Temuco.xlsx
@@ -836,7 +836,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Extracción de áridos, procesamiento y producción de asfalto, Bitumix CVV, Temuco</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2786,16 +2786,16 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>ESPECIALIDADES ASFALTICAS BITUMIX CVV</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2804,12 +2804,12 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970785&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Extracción de áridos, procesamiento y producción de asfalto, Bitumix CVV, Temuco</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2834,16 +2834,16 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>ESPECIALIDADES ASFALTICAS BITUMIX CVV</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2852,12 +2852,12 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970785&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,11 +5335,11 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -5348,12 +5348,12 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,11 +5383,11 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5396,12 +5396,12 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Modificación del Sistema de Conducción de Efluentes de la Planta de Tratamiento de Aguas Servidas de Temuco (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8450,16 +8450,16 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Aguas Araucanía S.A</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>500</v>
+        <v>655</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -8468,12 +8468,12 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1374050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Modificación del Sistema de Conducción de Efluentes de la Planta de Tratamiento de Aguas Servidas de Temuco (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8498,16 +8498,16 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Aguas Araucanía S.A</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>655</v>
+        <v>500</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -8516,12 +8516,12 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1374050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -11748,7 +11748,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador de Temuco</t>
+          <t>Modificación Plan Regulador Temuco 2000 sub zona C-3 y sub zona C-4</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11781,7 +11781,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131922315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11796,7 +11796,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Temuco 2000 sub zona C-3 y sub zona C-4</t>
+          <t>Modificación Plan Regulador de Temuco</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11829,7 +11829,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131922315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -13516,7 +13516,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Terminal Rodovario de la Araucanía</t>
+          <t>Extracción de Áridos Rio Cautin</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -13531,11 +13531,11 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>Inmobiliaria Andina</t>
+          <t>Agrícola y Comercial Pirineos Ltda.</t>
         </is>
       </c>
       <c r="F275" t="n">
-        <v>10</v>
+        <v>610</v>
       </c>
       <c r="G275" t="inlineStr">
         <is>
@@ -13549,7 +13549,7 @@
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
@@ -13564,7 +13564,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Rio Cautin</t>
+          <t>Terminal Rodovario de la Araucanía</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -13579,11 +13579,11 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>Agrícola y Comercial Pirineos Ltda.</t>
+          <t>Inmobiliaria Andina</t>
         </is>
       </c>
       <c r="F276" t="n">
-        <v>610</v>
+        <v>10</v>
       </c>
       <c r="G276" t="inlineStr">
         <is>
@@ -13597,7 +13597,7 @@
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">

--- a/data/Temuco.xlsx
+++ b/data/Temuco.xlsx
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Extracción de áridos, procesamiento y producción de asfalto, Bitumix CVV, Temuco</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2834,16 +2834,16 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>ESPECIALIDADES ASFALTICAS BITUMIX CVV</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2852,12 +2852,12 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970785&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Extracción de áridos, procesamiento y producción de asfalto, Bitumix CVV, Temuco</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2882,16 +2882,16 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>ESPECIALIDADES ASFALTICAS BITUMIX CVV</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2900,12 +2900,12 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970785&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Modificación del Sistema de Conducción de Efluentes de la Planta de Tratamiento de Aguas Servidas de Temuco (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8498,16 +8498,16 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Aguas Araucanía S.A</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>500</v>
+        <v>655</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -8516,12 +8516,12 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1374050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Modificación del Sistema de Conducción de Efluentes de la Planta de Tratamiento de Aguas Servidas de Temuco (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8546,16 +8546,16 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Aguas Araucanía S.A</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>655</v>
+        <v>500</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8564,12 +8564,12 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1374050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -11796,7 +11796,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador de Temuco</t>
+          <t>Modificación Plan Regulador Temuco 2000 sub zona C-3 y sub zona C-4</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11829,7 +11829,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131922315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -11844,7 +11844,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Temuco 2000 sub zona C-3 y sub zona C-4</t>
+          <t>Modificación Plan Regulador de Temuco</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11877,7 +11877,7 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131922315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -13564,7 +13564,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Terminal Rodovario de la Araucanía</t>
+          <t>Extracción de Áridos Rio Cautin</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -13579,11 +13579,11 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>Inmobiliaria Andina</t>
+          <t>Agrícola y Comercial Pirineos Ltda.</t>
         </is>
       </c>
       <c r="F276" t="n">
-        <v>10</v>
+        <v>610</v>
       </c>
       <c r="G276" t="inlineStr">
         <is>
@@ -13597,7 +13597,7 @@
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
@@ -13612,7 +13612,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Rio Cautin</t>
+          <t>Terminal Rodovario de la Araucanía</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -13627,11 +13627,11 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>Agrícola y Comercial Pirineos Ltda.</t>
+          <t>Inmobiliaria Andina</t>
         </is>
       </c>
       <c r="F277" t="n">
-        <v>610</v>
+        <v>10</v>
       </c>
       <c r="G277" t="inlineStr">
         <is>
@@ -13645,7 +13645,7 @@
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">

--- a/data/Temuco.xlsx
+++ b/data/Temuco.xlsx
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Extracción de áridos, procesamiento y producción de asfalto, Bitumix CVV, Temuco</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2834,16 +2834,16 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>ESPECIALIDADES ASFALTICAS BITUMIX CVV</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2852,12 +2852,12 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970785&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Extracción de áridos, procesamiento y producción de asfalto, Bitumix CVV, Temuco</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2882,16 +2882,16 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>ESPECIALIDADES ASFALTICAS BITUMIX CVV</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2900,12 +2900,12 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970785&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Modificación del Sistema de Conducción de Efluentes de la Planta de Tratamiento de Aguas Servidas de Temuco (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8498,16 +8498,16 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Aguas Araucanía S.A</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>655</v>
+        <v>500</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -8516,12 +8516,12 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1374050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Modificación del Sistema de Conducción de Efluentes de la Planta de Tratamiento de Aguas Servidas de Temuco (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8546,16 +8546,16 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Aguas Araucanía S.A</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>500</v>
+        <v>655</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8564,12 +8564,12 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1374050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -11796,7 +11796,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Temuco 2000 sub zona C-3 y sub zona C-4</t>
+          <t>Modificación Plan Regulador de Temuco</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11829,7 +11829,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131922315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -11844,7 +11844,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador de Temuco</t>
+          <t>Modificación Plan Regulador Temuco 2000 sub zona C-3 y sub zona C-4</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11877,7 +11877,7 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131922315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -13564,7 +13564,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Rio Cautin</t>
+          <t>Terminal Rodovario de la Araucanía</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -13579,11 +13579,11 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>Agrícola y Comercial Pirineos Ltda.</t>
+          <t>Inmobiliaria Andina</t>
         </is>
       </c>
       <c r="F276" t="n">
-        <v>610</v>
+        <v>10</v>
       </c>
       <c r="G276" t="inlineStr">
         <is>
@@ -13597,7 +13597,7 @@
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
@@ -13612,7 +13612,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Terminal Rodovario de la Araucanía</t>
+          <t>Extracción de Áridos Rio Cautin</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -13627,11 +13627,11 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>Inmobiliaria Andina</t>
+          <t>Agrícola y Comercial Pirineos Ltda.</t>
         </is>
       </c>
       <c r="F277" t="n">
-        <v>10</v>
+        <v>610</v>
       </c>
       <c r="G277" t="inlineStr">
         <is>
@@ -13645,7 +13645,7 @@
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">

--- a/data/Temuco.xlsx
+++ b/data/Temuco.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Temuco.xlsx
+++ b/data/Temuco.xlsx
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Extracción de áridos, procesamiento y producción de asfalto, Bitumix CVV, Temuco</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2834,16 +2834,16 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>ESPECIALIDADES ASFALTICAS BITUMIX CVV</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2852,12 +2852,12 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970785&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Extracción de áridos, procesamiento y producción de asfalto, Bitumix CVV, Temuco</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2882,16 +2882,16 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>ESPECIALIDADES ASFALTICAS BITUMIX CVV</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2900,12 +2900,12 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970785&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,11 +5383,11 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5396,12 +5396,12 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5431,11 +5431,11 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -5444,12 +5444,12 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Modificación del Sistema de Conducción de Efluentes de la Planta de Tratamiento de Aguas Servidas de Temuco (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8498,16 +8498,16 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Aguas Araucanía S.A</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>500</v>
+        <v>655</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -8516,12 +8516,12 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1374050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Modificación del Sistema de Conducción de Efluentes de la Planta de Tratamiento de Aguas Servidas de Temuco (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8546,16 +8546,16 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Aguas Araucanía S.A</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>655</v>
+        <v>500</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8564,12 +8564,12 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1374050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -11796,7 +11796,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador de Temuco</t>
+          <t>Modificación Plan Regulador Temuco 2000 sub zona C-3 y sub zona C-4</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11829,7 +11829,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131922315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -11844,7 +11844,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Temuco 2000 sub zona C-3 y sub zona C-4</t>
+          <t>Modificación Plan Regulador de Temuco</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11877,7 +11877,7 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131922315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -11955,7 +11955,7 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>CGE TRANSMISION S.A.</t>
         </is>
       </c>
       <c r="F242" t="n">
@@ -13564,7 +13564,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Terminal Rodovario de la Araucanía</t>
+          <t>Extracción de Áridos Rio Cautin</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -13579,11 +13579,11 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>Inmobiliaria Andina</t>
+          <t>Agrícola y Comercial Pirineos Ltda.</t>
         </is>
       </c>
       <c r="F276" t="n">
-        <v>10</v>
+        <v>610</v>
       </c>
       <c r="G276" t="inlineStr">
         <is>
@@ -13597,7 +13597,7 @@
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
@@ -13612,7 +13612,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Rio Cautin</t>
+          <t>Terminal Rodovario de la Araucanía</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -13627,11 +13627,11 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>Agrícola y Comercial Pirineos Ltda.</t>
+          <t>Inmobiliaria Andina</t>
         </is>
       </c>
       <c r="F277" t="n">
-        <v>610</v>
+        <v>10</v>
       </c>
       <c r="G277" t="inlineStr">
         <is>
@@ -13645,7 +13645,7 @@
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">

--- a/data/Temuco.xlsx
+++ b/data/Temuco.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>19/07/2022</t>
+          <t>21/07/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Temuco.xlsx
+++ b/data/Temuco.xlsx
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Extracción de áridos, procesamiento y producción de asfalto, Bitumix CVV, Temuco</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2882,16 +2882,16 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>ESPECIALIDADES ASFALTICAS BITUMIX CVV</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2900,12 +2900,12 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970785&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Extracción de áridos, procesamiento y producción de asfalto, Bitumix CVV, Temuco</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2930,16 +2930,16 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>ESPECIALIDADES ASFALTICAS BITUMIX CVV</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2948,12 +2948,12 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970785&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Modificación del Sistema de Conducción de Efluentes de la Planta de Tratamiento de Aguas Servidas de Temuco (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8546,16 +8546,16 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Aguas Araucanía S.A</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>500</v>
+        <v>655</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8564,12 +8564,12 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1374050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Modificación del Sistema de Conducción de Efluentes de la Planta de Tratamiento de Aguas Servidas de Temuco (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8594,16 +8594,16 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Aguas Araucanía S.A</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>655</v>
+        <v>500</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8612,12 +8612,12 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1374050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -11844,7 +11844,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador de Temuco</t>
+          <t>Modificación Plan Regulador Temuco 2000 sub zona C-3 y sub zona C-4</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11877,7 +11877,7 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131922315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -11892,7 +11892,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Temuco 2000 sub zona C-3 y sub zona C-4</t>
+          <t>Modificación Plan Regulador de Temuco</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11925,7 +11925,7 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131922315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -13612,7 +13612,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Terminal Rodovario de la Araucanía</t>
+          <t>Extracción de Áridos Rio Cautin</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -13627,11 +13627,11 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>Inmobiliaria Andina</t>
+          <t>Agrícola y Comercial Pirineos Ltda.</t>
         </is>
       </c>
       <c r="F277" t="n">
-        <v>10</v>
+        <v>610</v>
       </c>
       <c r="G277" t="inlineStr">
         <is>
@@ -13645,7 +13645,7 @@
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
@@ -13660,7 +13660,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Rio Cautin</t>
+          <t>Terminal Rodovario de la Araucanía</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -13675,11 +13675,11 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>Agrícola y Comercial Pirineos Ltda.</t>
+          <t>Inmobiliaria Andina</t>
         </is>
       </c>
       <c r="F278" t="n">
-        <v>610</v>
+        <v>10</v>
       </c>
       <c r="G278" t="inlineStr">
         <is>
@@ -13693,7 +13693,7 @@
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">

--- a/data/Temuco.xlsx
+++ b/data/Temuco.xlsx
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Extracción de áridos, procesamiento y producción de asfalto, Bitumix CVV, Temuco</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2882,16 +2882,16 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>ESPECIALIDADES ASFALTICAS BITUMIX CVV</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2900,12 +2900,12 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970785&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Extracción de áridos, procesamiento y producción de asfalto, Bitumix CVV, Temuco</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2930,16 +2930,16 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>ESPECIALIDADES ASFALTICAS BITUMIX CVV</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2948,12 +2948,12 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970785&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Modificación del Sistema de Conducción de Efluentes de la Planta de Tratamiento de Aguas Servidas de Temuco (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8546,16 +8546,16 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Aguas Araucanía S.A</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>655</v>
+        <v>500</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8564,12 +8564,12 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1374050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Modificación del Sistema de Conducción de Efluentes de la Planta de Tratamiento de Aguas Servidas de Temuco (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8594,16 +8594,16 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Aguas Araucanía S.A</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>500</v>
+        <v>655</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8612,12 +8612,12 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1374050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -11844,7 +11844,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Temuco 2000 sub zona C-3 y sub zona C-4</t>
+          <t>Modificación Plan Regulador de Temuco</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11877,7 +11877,7 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131922315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -11892,7 +11892,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador de Temuco</t>
+          <t>Modificación Plan Regulador Temuco 2000 sub zona C-3 y sub zona C-4</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11925,7 +11925,7 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131922315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -13612,7 +13612,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Rio Cautin</t>
+          <t>Terminal Rodovario de la Araucanía</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -13627,11 +13627,11 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>Agrícola y Comercial Pirineos Ltda.</t>
+          <t>Inmobiliaria Andina</t>
         </is>
       </c>
       <c r="F277" t="n">
-        <v>610</v>
+        <v>10</v>
       </c>
       <c r="G277" t="inlineStr">
         <is>
@@ -13645,7 +13645,7 @@
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
@@ -13660,7 +13660,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Terminal Rodovario de la Araucanía</t>
+          <t>Extracción de Áridos Rio Cautin</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -13675,11 +13675,11 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>Inmobiliaria Andina</t>
+          <t>Agrícola y Comercial Pirineos Ltda.</t>
         </is>
       </c>
       <c r="F278" t="n">
-        <v>10</v>
+        <v>610</v>
       </c>
       <c r="G278" t="inlineStr">
         <is>
@@ -13693,7 +13693,7 @@
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">

--- a/data/Temuco.xlsx
+++ b/data/Temuco.xlsx
@@ -884,7 +884,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">

--- a/data/Temuco.xlsx
+++ b/data/Temuco.xlsx
@@ -692,7 +692,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">

--- a/data/Temuco.xlsx
+++ b/data/Temuco.xlsx
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Extracción de áridos, procesamiento y producción de asfalto, Bitumix CVV, Temuco</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2930,16 +2930,16 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>ESPECIALIDADES ASFALTICAS BITUMIX CVV</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2948,12 +2948,12 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970785&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Extracción de áridos, procesamiento y producción de asfalto, Bitumix CVV, Temuco</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2978,16 +2978,16 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>ESPECIALIDADES ASFALTICAS BITUMIX CVV</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2996,12 +2996,12 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970785&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Modificación del Sistema de Conducción de Efluentes de la Planta de Tratamiento de Aguas Servidas de Temuco (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8594,16 +8594,16 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Aguas Araucanía S.A</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>500</v>
+        <v>655</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8612,12 +8612,12 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1374050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Modificación del Sistema de Conducción de Efluentes de la Planta de Tratamiento de Aguas Servidas de Temuco (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8642,16 +8642,16 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Aguas Araucanía S.A</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>655</v>
+        <v>500</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1374050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -11892,7 +11892,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador de Temuco</t>
+          <t>Modificación Plan Regulador Temuco 2000 sub zona C-3 y sub zona C-4</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11925,7 +11925,7 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131922315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -11940,7 +11940,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Temuco 2000 sub zona C-3 y sub zona C-4</t>
+          <t>Modificación Plan Regulador de Temuco</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11973,7 +11973,7 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131922315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -13660,7 +13660,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Terminal Rodovario de la Araucanía</t>
+          <t>Extracción de Áridos Rio Cautin</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -13675,11 +13675,11 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>Inmobiliaria Andina</t>
+          <t>Agrícola y Comercial Pirineos Ltda.</t>
         </is>
       </c>
       <c r="F278" t="n">
-        <v>10</v>
+        <v>610</v>
       </c>
       <c r="G278" t="inlineStr">
         <is>
@@ -13693,7 +13693,7 @@
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
@@ -13708,7 +13708,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Rio Cautin</t>
+          <t>Terminal Rodovario de la Araucanía</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -13723,11 +13723,11 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>Agrícola y Comercial Pirineos Ltda.</t>
+          <t>Inmobiliaria Andina</t>
         </is>
       </c>
       <c r="F279" t="n">
-        <v>610</v>
+        <v>10</v>
       </c>
       <c r="G279" t="inlineStr">
         <is>
@@ -13741,7 +13741,7 @@
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">

--- a/data/Temuco.xlsx
+++ b/data/Temuco.xlsx
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Extracción de áridos, procesamiento y producción de asfalto, Bitumix CVV, Temuco</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2930,16 +2930,16 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>ESPECIALIDADES ASFALTICAS BITUMIX CVV</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2948,12 +2948,12 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970785&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Extracción de áridos, procesamiento y producción de asfalto, Bitumix CVV, Temuco</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2978,16 +2978,16 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>ESPECIALIDADES ASFALTICAS BITUMIX CVV</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2996,12 +2996,12 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970785&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Modificación del Sistema de Conducción de Efluentes de la Planta de Tratamiento de Aguas Servidas de Temuco (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8594,16 +8594,16 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Aguas Araucanía S.A</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>655</v>
+        <v>500</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8612,12 +8612,12 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1374050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Modificación del Sistema de Conducción de Efluentes de la Planta de Tratamiento de Aguas Servidas de Temuco (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8642,16 +8642,16 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Aguas Araucanía S.A</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>500</v>
+        <v>655</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1374050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -11892,7 +11892,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Temuco 2000 sub zona C-3 y sub zona C-4</t>
+          <t>Modificación Plan Regulador de Temuco</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11925,7 +11925,7 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131922315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -11940,7 +11940,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador de Temuco</t>
+          <t>Modificación Plan Regulador Temuco 2000 sub zona C-3 y sub zona C-4</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11973,7 +11973,7 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131922315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -13660,7 +13660,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Rio Cautin</t>
+          <t>Terminal Rodovario de la Araucanía</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -13675,11 +13675,11 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>Agrícola y Comercial Pirineos Ltda.</t>
+          <t>Inmobiliaria Andina</t>
         </is>
       </c>
       <c r="F278" t="n">
-        <v>610</v>
+        <v>10</v>
       </c>
       <c r="G278" t="inlineStr">
         <is>
@@ -13693,7 +13693,7 @@
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
@@ -13708,7 +13708,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Terminal Rodovario de la Araucanía</t>
+          <t>Extracción de Áridos Rio Cautin</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -13723,11 +13723,11 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>Inmobiliaria Andina</t>
+          <t>Agrícola y Comercial Pirineos Ltda.</t>
         </is>
       </c>
       <c r="F279" t="n">
-        <v>10</v>
+        <v>610</v>
       </c>
       <c r="G279" t="inlineStr">
         <is>
@@ -13741,7 +13741,7 @@
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">

--- a/data/Temuco.xlsx
+++ b/data/Temuco.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Temuco.xlsx
+++ b/data/Temuco.xlsx
@@ -447,7 +447,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17/03/2023</t>
+          <t>24/03/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">

--- a/data/Temuco.xlsx
+++ b/data/Temuco.xlsx
@@ -596,7 +596,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Extracción de áridos, procesamiento y producción de asfalto, Bitumix CVV, Temuco</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2930,16 +2930,16 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>ESPECIALIDADES ASFALTICAS BITUMIX CVV</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2948,12 +2948,12 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970785&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Extracción de áridos, procesamiento y producción de asfalto, Bitumix CVV, Temuco</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2978,16 +2978,16 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>ESPECIALIDADES ASFALTICAS BITUMIX CVV</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2996,12 +2996,12 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970785&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Modificación del Sistema de Conducción de Efluentes de la Planta de Tratamiento de Aguas Servidas de Temuco (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8594,16 +8594,16 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Aguas Araucanía S.A</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>500</v>
+        <v>655</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8612,12 +8612,12 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1374050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Modificación del Sistema de Conducción de Efluentes de la Planta de Tratamiento de Aguas Servidas de Temuco (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8642,16 +8642,16 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Aguas Araucanía S.A</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>655</v>
+        <v>500</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1374050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -11892,7 +11892,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador de Temuco</t>
+          <t>Modificación Plan Regulador Temuco 2000 sub zona C-3 y sub zona C-4</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11925,7 +11925,7 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131922315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -11940,7 +11940,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Temuco 2000 sub zona C-3 y sub zona C-4</t>
+          <t>Modificación Plan Regulador de Temuco</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11973,7 +11973,7 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131922315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">

--- a/data/Temuco.xlsx
+++ b/data/Temuco.xlsx
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Extracción de áridos, procesamiento y producción de asfalto, Bitumix CVV, Temuco</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2930,16 +2930,16 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>ESPECIALIDADES ASFALTICAS BITUMIX CVV</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2948,12 +2948,12 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970785&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Extracción de áridos, procesamiento y producción de asfalto, Bitumix CVV, Temuco</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2978,16 +2978,16 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>ESPECIALIDADES ASFALTICAS BITUMIX CVV</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2996,12 +2996,12 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970785&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Modificación del Sistema de Conducción de Efluentes de la Planta de Tratamiento de Aguas Servidas de Temuco (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8594,16 +8594,16 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Aguas Araucanía S.A</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>655</v>
+        <v>500</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8612,12 +8612,12 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1374050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Modificación del Sistema de Conducción de Efluentes de la Planta de Tratamiento de Aguas Servidas de Temuco (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8642,16 +8642,16 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Aguas Araucanía S.A</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>500</v>
+        <v>655</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1374050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -11892,7 +11892,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Temuco 2000 sub zona C-3 y sub zona C-4</t>
+          <t>Modificación Plan Regulador de Temuco</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11925,7 +11925,7 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131922315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -11940,7 +11940,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador de Temuco</t>
+          <t>Modificación Plan Regulador Temuco 2000 sub zona C-3 y sub zona C-4</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11973,7 +11973,7 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131922315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">

--- a/data/Temuco.xlsx
+++ b/data/Temuco.xlsx
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Extracción de áridos, procesamiento y producción de asfalto, Bitumix CVV, Temuco</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2930,16 +2930,16 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>ESPECIALIDADES ASFALTICAS BITUMIX CVV</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2948,12 +2948,12 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970785&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Extracción de áridos, procesamiento y producción de asfalto, Bitumix CVV, Temuco</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2978,16 +2978,16 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>ESPECIALIDADES ASFALTICAS BITUMIX CVV</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2996,12 +2996,12 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970785&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Modificación del Sistema de Conducción de Efluentes de la Planta de Tratamiento de Aguas Servidas de Temuco (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8594,16 +8594,16 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Aguas Araucanía S.A</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>500</v>
+        <v>655</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8612,12 +8612,12 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1374050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Modificación del Sistema de Conducción de Efluentes de la Planta de Tratamiento de Aguas Servidas de Temuco (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8642,16 +8642,16 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Aguas Araucanía S.A</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>655</v>
+        <v>500</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1374050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -11892,7 +11892,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador de Temuco</t>
+          <t>Modificación Plan Regulador Temuco 2000 sub zona C-3 y sub zona C-4</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11925,7 +11925,7 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131922315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -11940,7 +11940,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Temuco 2000 sub zona C-3 y sub zona C-4</t>
+          <t>Modificación Plan Regulador de Temuco</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11973,7 +11973,7 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131922315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">

--- a/data/Temuco.xlsx
+++ b/data/Temuco.xlsx
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Extracción de áridos, procesamiento y producción de asfalto, Bitumix CVV, Temuco</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2978,16 +2978,16 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>ESPECIALIDADES ASFALTICAS BITUMIX CVV</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2996,12 +2996,12 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970785&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Extracción de áridos, procesamiento y producción de asfalto, Bitumix CVV, Temuco</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3026,16 +3026,16 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>ESPECIALIDADES ASFALTICAS BITUMIX CVV</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3044,12 +3044,12 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970785&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Modificación del Sistema de Conducción de Efluentes de la Planta de Tratamiento de Aguas Servidas de Temuco (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8642,16 +8642,16 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Aguas Araucanía S.A</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>500</v>
+        <v>655</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1374050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Modificación del Sistema de Conducción de Efluentes de la Planta de Tratamiento de Aguas Servidas de Temuco (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8690,16 +8690,16 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Aguas Araucanía S.A</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>655</v>
+        <v>500</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8708,12 +8708,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1374050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -11940,7 +11940,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador de Temuco</t>
+          <t>Modificación Plan Regulador Temuco 2000 sub zona C-3 y sub zona C-4</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11973,7 +11973,7 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131922315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -11988,7 +11988,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Temuco 2000 sub zona C-3 y sub zona C-4</t>
+          <t>Modificación Plan Regulador de Temuco</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -12021,7 +12021,7 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131922315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -13708,7 +13708,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Terminal Rodovario de la Araucanía</t>
+          <t>Extracción de Áridos Rio Cautin</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -13723,11 +13723,11 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>Inmobiliaria Andina</t>
+          <t>Agrícola y Comercial Pirineos Ltda.</t>
         </is>
       </c>
       <c r="F279" t="n">
-        <v>10</v>
+        <v>610</v>
       </c>
       <c r="G279" t="inlineStr">
         <is>
@@ -13741,7 +13741,7 @@
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
@@ -13756,7 +13756,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Rio Cautin</t>
+          <t>Terminal Rodovario de la Araucanía</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -13771,11 +13771,11 @@
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>Agrícola y Comercial Pirineos Ltda.</t>
+          <t>Inmobiliaria Andina</t>
         </is>
       </c>
       <c r="F280" t="n">
-        <v>610</v>
+        <v>10</v>
       </c>
       <c r="G280" t="inlineStr">
         <is>
@@ -13789,7 +13789,7 @@
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">

--- a/data/Temuco.xlsx
+++ b/data/Temuco.xlsx
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Extracción de áridos, procesamiento y producción de asfalto, Bitumix CVV, Temuco</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2978,16 +2978,16 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>ESPECIALIDADES ASFALTICAS BITUMIX CVV</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2996,12 +2996,12 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970785&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Extracción de áridos, procesamiento y producción de asfalto, Bitumix CVV, Temuco</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3026,16 +3026,16 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>ESPECIALIDADES ASFALTICAS BITUMIX CVV</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3044,12 +3044,12 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970785&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Modificación del Sistema de Conducción de Efluentes de la Planta de Tratamiento de Aguas Servidas de Temuco (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8642,16 +8642,16 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Aguas Araucanía S.A</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>655</v>
+        <v>500</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1374050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Modificación del Sistema de Conducción de Efluentes de la Planta de Tratamiento de Aguas Servidas de Temuco (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8690,16 +8690,16 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Aguas Araucanía S.A</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>500</v>
+        <v>655</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8708,12 +8708,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1374050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -11940,7 +11940,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Temuco 2000 sub zona C-3 y sub zona C-4</t>
+          <t>Modificación Plan Regulador de Temuco</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11973,7 +11973,7 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131922315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -11988,7 +11988,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador de Temuco</t>
+          <t>Modificación Plan Regulador Temuco 2000 sub zona C-3 y sub zona C-4</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -12021,7 +12021,7 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131922315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -13708,7 +13708,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Rio Cautin</t>
+          <t>Terminal Rodovario de la Araucanía</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -13723,11 +13723,11 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>Agrícola y Comercial Pirineos Ltda.</t>
+          <t>Inmobiliaria Andina</t>
         </is>
       </c>
       <c r="F279" t="n">
-        <v>610</v>
+        <v>10</v>
       </c>
       <c r="G279" t="inlineStr">
         <is>
@@ -13741,7 +13741,7 @@
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
@@ -13756,7 +13756,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Terminal Rodovario de la Araucanía</t>
+          <t>Extracción de Áridos Rio Cautin</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -13771,11 +13771,11 @@
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>Inmobiliaria Andina</t>
+          <t>Agrícola y Comercial Pirineos Ltda.</t>
         </is>
       </c>
       <c r="F280" t="n">
-        <v>10</v>
+        <v>610</v>
       </c>
       <c r="G280" t="inlineStr">
         <is>
@@ -13789,7 +13789,7 @@
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">

--- a/data/Temuco.xlsx
+++ b/data/Temuco.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>03/08/2023</t>
+          <t>10/08/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Temuco.xlsx
+++ b/data/Temuco.xlsx
@@ -692,7 +692,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Extracción de áridos, procesamiento y producción de asfalto, Bitumix CVV, Temuco</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2978,16 +2978,16 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>ESPECIALIDADES ASFALTICAS BITUMIX CVV</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2996,12 +2996,12 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970785&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Extracción de áridos, procesamiento y producción de asfalto, Bitumix CVV, Temuco</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3026,16 +3026,16 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>ESPECIALIDADES ASFALTICAS BITUMIX CVV</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3044,12 +3044,12 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970785&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Modificación del Sistema de Conducción de Efluentes de la Planta de Tratamiento de Aguas Servidas de Temuco (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8642,16 +8642,16 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Aguas Araucanía S.A</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>500</v>
+        <v>655</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1374050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Modificación del Sistema de Conducción de Efluentes de la Planta de Tratamiento de Aguas Servidas de Temuco (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8690,16 +8690,16 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Aguas Araucanía S.A</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>655</v>
+        <v>500</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8708,12 +8708,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1374050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -11940,7 +11940,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador de Temuco</t>
+          <t>Modificación Plan Regulador Temuco 2000 sub zona C-3 y sub zona C-4</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11973,7 +11973,7 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131922315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -11988,7 +11988,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Temuco 2000 sub zona C-3 y sub zona C-4</t>
+          <t>Modificación Plan Regulador de Temuco</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -12021,7 +12021,7 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131922315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">

--- a/data/Temuco.xlsx
+++ b/data/Temuco.xlsx
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Extracción de áridos, procesamiento y producción de asfalto, Bitumix CVV, Temuco</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2978,16 +2978,16 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>ESPECIALIDADES ASFALTICAS BITUMIX CVV</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2996,12 +2996,12 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970785&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Extracción de áridos, procesamiento y producción de asfalto, Bitumix CVV, Temuco</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3026,16 +3026,16 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>ESPECIALIDADES ASFALTICAS BITUMIX CVV</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3044,12 +3044,12 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970785&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Modificación del Sistema de Conducción de Efluentes de la Planta de Tratamiento de Aguas Servidas de Temuco (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8642,16 +8642,16 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Aguas Araucanía S.A</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>655</v>
+        <v>500</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1374050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Modificación del Sistema de Conducción de Efluentes de la Planta de Tratamiento de Aguas Servidas de Temuco (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8690,16 +8690,16 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Aguas Araucanía S.A</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>500</v>
+        <v>655</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8708,12 +8708,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1374050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -11940,7 +11940,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Temuco 2000 sub zona C-3 y sub zona C-4</t>
+          <t>Modificación Plan Regulador de Temuco</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11973,7 +11973,7 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131922315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -11988,7 +11988,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador de Temuco</t>
+          <t>Modificación Plan Regulador Temuco 2000 sub zona C-3 y sub zona C-4</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -12021,7 +12021,7 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131922315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">

--- a/data/Temuco.xlsx
+++ b/data/Temuco.xlsx
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Extracción de áridos, procesamiento y producción de asfalto, Bitumix CVV, Temuco</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2978,16 +2978,16 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>ESPECIALIDADES ASFALTICAS BITUMIX CVV</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2996,12 +2996,12 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970785&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Extracción de áridos, procesamiento y producción de asfalto, Bitumix CVV, Temuco</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3026,16 +3026,16 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>ESPECIALIDADES ASFALTICAS BITUMIX CVV</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3044,12 +3044,12 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970785&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Modificación del Sistema de Conducción de Efluentes de la Planta de Tratamiento de Aguas Servidas de Temuco (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8642,16 +8642,16 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Aguas Araucanía S.A</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>500</v>
+        <v>655</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1374050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Modificación del Sistema de Conducción de Efluentes de la Planta de Tratamiento de Aguas Servidas de Temuco (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8690,16 +8690,16 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Aguas Araucanía S.A</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>655</v>
+        <v>500</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8708,12 +8708,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1374050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -11940,7 +11940,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador de Temuco</t>
+          <t>Modificación Plan Regulador Temuco 2000 sub zona C-3 y sub zona C-4</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11973,7 +11973,7 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131922315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -11988,7 +11988,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Temuco 2000 sub zona C-3 y sub zona C-4</t>
+          <t>Modificación Plan Regulador de Temuco</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -12021,7 +12021,7 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131922315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">

--- a/data/Temuco.xlsx
+++ b/data/Temuco.xlsx
@@ -548,7 +548,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">

--- a/data/Temuco.xlsx
+++ b/data/Temuco.xlsx
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Extracción de áridos, procesamiento y producción de asfalto, Bitumix CVV, Temuco</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3026,16 +3026,16 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>ESPECIALIDADES ASFALTICAS BITUMIX CVV</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3044,12 +3044,12 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970785&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Extracción de áridos, procesamiento y producción de asfalto, Bitumix CVV, Temuco</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3074,16 +3074,16 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>ESPECIALIDADES ASFALTICAS BITUMIX CVV</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -3092,12 +3092,12 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970785&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Modificación del Sistema de Conducción de Efluentes de la Planta de Tratamiento de Aguas Servidas de Temuco (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8690,16 +8690,16 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Aguas Araucanía S.A</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>500</v>
+        <v>655</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8708,12 +8708,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1374050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Modificación del Sistema de Conducción de Efluentes de la Planta de Tratamiento de Aguas Servidas de Temuco (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8738,16 +8738,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Aguas Araucanía S.A</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>655</v>
+        <v>500</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1374050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -11988,7 +11988,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador de Temuco</t>
+          <t>Modificación Plan Regulador Temuco 2000 sub zona C-3 y sub zona C-4</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -12021,7 +12021,7 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131922315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -12036,7 +12036,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Temuco 2000 sub zona C-3 y sub zona C-4</t>
+          <t>Modificación Plan Regulador de Temuco</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12069,7 +12069,7 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131922315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -13756,7 +13756,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Terminal Rodovario de la Araucanía</t>
+          <t>Extracción de Áridos Rio Cautin</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -13771,11 +13771,11 @@
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>Inmobiliaria Andina</t>
+          <t>Agrícola y Comercial Pirineos Ltda.</t>
         </is>
       </c>
       <c r="F280" t="n">
-        <v>10</v>
+        <v>610</v>
       </c>
       <c r="G280" t="inlineStr">
         <is>
@@ -13789,7 +13789,7 @@
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
@@ -13804,7 +13804,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Rio Cautin</t>
+          <t>Terminal Rodovario de la Araucanía</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -13819,11 +13819,11 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>Agrícola y Comercial Pirineos Ltda.</t>
+          <t>Inmobiliaria Andina</t>
         </is>
       </c>
       <c r="F281" t="n">
-        <v>610</v>
+        <v>10</v>
       </c>
       <c r="G281" t="inlineStr">
         <is>
@@ -13837,7 +13837,7 @@
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">

--- a/data/Temuco.xlsx
+++ b/data/Temuco.xlsx
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Extracción de áridos, procesamiento y producción de asfalto, Bitumix CVV, Temuco</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3026,16 +3026,16 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>ESPECIALIDADES ASFALTICAS BITUMIX CVV</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3044,12 +3044,12 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970785&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Extracción de áridos, procesamiento y producción de asfalto, Bitumix CVV, Temuco</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3074,16 +3074,16 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>ESPECIALIDADES ASFALTICAS BITUMIX CVV</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -3092,12 +3092,12 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970785&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Modificación del Sistema de Conducción de Efluentes de la Planta de Tratamiento de Aguas Servidas de Temuco (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8690,16 +8690,16 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Aguas Araucanía S.A</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>655</v>
+        <v>500</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8708,12 +8708,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1374050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Modificación del Sistema de Conducción de Efluentes de la Planta de Tratamiento de Aguas Servidas de Temuco (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8738,16 +8738,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Aguas Araucanía S.A</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>500</v>
+        <v>655</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1374050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -11988,7 +11988,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Temuco 2000 sub zona C-3 y sub zona C-4</t>
+          <t>Modificación Plan Regulador de Temuco</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -12021,7 +12021,7 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131922315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -12036,7 +12036,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador de Temuco</t>
+          <t>Modificación Plan Regulador Temuco 2000 sub zona C-3 y sub zona C-4</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12069,7 +12069,7 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131922315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -13756,7 +13756,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Rio Cautin</t>
+          <t>Terminal Rodovario de la Araucanía</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -13771,11 +13771,11 @@
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>Agrícola y Comercial Pirineos Ltda.</t>
+          <t>Inmobiliaria Andina</t>
         </is>
       </c>
       <c r="F280" t="n">
-        <v>610</v>
+        <v>10</v>
       </c>
       <c r="G280" t="inlineStr">
         <is>
@@ -13789,7 +13789,7 @@
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
@@ -13804,7 +13804,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Terminal Rodovario de la Araucanía</t>
+          <t>Extracción de Áridos Rio Cautin</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -13819,11 +13819,11 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>Inmobiliaria Andina</t>
+          <t>Agrícola y Comercial Pirineos Ltda.</t>
         </is>
       </c>
       <c r="F281" t="n">
-        <v>10</v>
+        <v>610</v>
       </c>
       <c r="G281" t="inlineStr">
         <is>
@@ -13837,7 +13837,7 @@
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">

--- a/data/Temuco.xlsx
+++ b/data/Temuco.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Temuco.xlsx
+++ b/data/Temuco.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>23/10/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Extracción de áridos, procesamiento y producción de asfalto, Bitumix CVV, Temuco</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3026,16 +3026,16 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>ESPECIALIDADES ASFALTICAS BITUMIX CVV</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3044,12 +3044,12 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970785&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Extracción de áridos, procesamiento y producción de asfalto, Bitumix CVV, Temuco</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3074,16 +3074,16 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>ESPECIALIDADES ASFALTICAS BITUMIX CVV</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -3092,12 +3092,12 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970785&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Modificación del Sistema de Conducción de Efluentes de la Planta de Tratamiento de Aguas Servidas de Temuco (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8690,16 +8690,16 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Aguas Araucanía S.A</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>655</v>
+        <v>500</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8708,12 +8708,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1374050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Modificación del Sistema de Conducción de Efluentes de la Planta de Tratamiento de Aguas Servidas de Temuco (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8738,16 +8738,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Aguas Araucanía S.A</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>500</v>
+        <v>655</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1374050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -11988,7 +11988,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Temuco 2000 sub zona C-3 y sub zona C-4</t>
+          <t>Modificación Plan Regulador de Temuco</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -12021,7 +12021,7 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131922315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -12036,7 +12036,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador de Temuco</t>
+          <t>Modificación Plan Regulador Temuco 2000 sub zona C-3 y sub zona C-4</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12069,7 +12069,7 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131922315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -13756,7 +13756,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Rio Cautin</t>
+          <t>Terminal Rodovario de la Araucanía</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -13771,11 +13771,11 @@
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>Agrícola y Comercial Pirineos Ltda.</t>
+          <t>Inmobiliaria Andina</t>
         </is>
       </c>
       <c r="F280" t="n">
-        <v>610</v>
+        <v>10</v>
       </c>
       <c r="G280" t="inlineStr">
         <is>
@@ -13789,7 +13789,7 @@
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
@@ -13804,7 +13804,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Terminal Rodovario de la Araucanía</t>
+          <t>Extracción de Áridos Rio Cautin</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -13819,11 +13819,11 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>Inmobiliaria Andina</t>
+          <t>Agrícola y Comercial Pirineos Ltda.</t>
         </is>
       </c>
       <c r="F281" t="n">
-        <v>10</v>
+        <v>610</v>
       </c>
       <c r="G281" t="inlineStr">
         <is>
@@ -13837,7 +13837,7 @@
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">

--- a/data/Temuco.xlsx
+++ b/data/Temuco.xlsx
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Extracción de áridos, procesamiento y producción de asfalto, Bitumix CVV, Temuco</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3026,16 +3026,16 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>ESPECIALIDADES ASFALTICAS BITUMIX CVV</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3044,12 +3044,12 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970785&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Extracción de áridos, procesamiento y producción de asfalto, Bitumix CVV, Temuco</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3074,16 +3074,16 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>ESPECIALIDADES ASFALTICAS BITUMIX CVV</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -3092,12 +3092,12 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970785&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Modificación del Sistema de Conducción de Efluentes de la Planta de Tratamiento de Aguas Servidas de Temuco (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8690,16 +8690,16 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Aguas Araucanía S.A</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>500</v>
+        <v>655</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8708,12 +8708,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1374050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Modificación del Sistema de Conducción de Efluentes de la Planta de Tratamiento de Aguas Servidas de Temuco (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8738,16 +8738,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Aguas Araucanía S.A</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>655</v>
+        <v>500</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1374050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -11988,7 +11988,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador de Temuco</t>
+          <t>Modificación Plan Regulador Temuco 2000 sub zona C-3 y sub zona C-4</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -12021,7 +12021,7 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131922315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -12036,7 +12036,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Temuco 2000 sub zona C-3 y sub zona C-4</t>
+          <t>Modificación Plan Regulador de Temuco</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12069,7 +12069,7 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131922315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">

--- a/data/Temuco.xlsx
+++ b/data/Temuco.xlsx
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Extracción de áridos, procesamiento y producción de asfalto, Bitumix CVV, Temuco</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3074,16 +3074,16 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>ESPECIALIDADES ASFALTICAS BITUMIX CVV</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -3092,12 +3092,12 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970785&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Extracción de áridos, procesamiento y producción de asfalto, Bitumix CVV, Temuco</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3122,16 +3122,16 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>ESPECIALIDADES ASFALTICAS BITUMIX CVV</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -3140,12 +3140,12 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970785&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Modificación del Sistema de Conducción de Efluentes de la Planta de Tratamiento de Aguas Servidas de Temuco (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8738,16 +8738,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Aguas Araucanía S.A</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>655</v>
+        <v>500</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1374050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Modificación del Sistema de Conducción de Efluentes de la Planta de Tratamiento de Aguas Servidas de Temuco (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8786,16 +8786,16 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Aguas Araucanía S.A</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>500</v>
+        <v>655</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8804,12 +8804,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1374050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -12036,7 +12036,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Temuco 2000 sub zona C-3 y sub zona C-4</t>
+          <t>Modificación Plan Regulador de Temuco</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12069,7 +12069,7 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131922315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -12084,7 +12084,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador de Temuco</t>
+          <t>Modificación Plan Regulador Temuco 2000 sub zona C-3 y sub zona C-4</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12117,7 +12117,7 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131922315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -13804,7 +13804,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Rio Cautin</t>
+          <t>Terminal Rodovario de la Araucanía</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -13819,11 +13819,11 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>Agrícola y Comercial Pirineos Ltda.</t>
+          <t>Inmobiliaria Andina</t>
         </is>
       </c>
       <c r="F281" t="n">
-        <v>610</v>
+        <v>10</v>
       </c>
       <c r="G281" t="inlineStr">
         <is>
@@ -13837,7 +13837,7 @@
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
@@ -13852,7 +13852,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Terminal Rodovario de la Araucanía</t>
+          <t>Extracción de Áridos Rio Cautin</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -13867,11 +13867,11 @@
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>Inmobiliaria Andina</t>
+          <t>Agrícola y Comercial Pirineos Ltda.</t>
         </is>
       </c>
       <c r="F282" t="n">
-        <v>10</v>
+        <v>610</v>
       </c>
       <c r="G282" t="inlineStr">
         <is>
@@ -13885,7 +13885,7 @@
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">

--- a/data/Temuco.xlsx
+++ b/data/Temuco.xlsx
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Extracción de áridos, procesamiento y producción de asfalto, Bitumix CVV, Temuco</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3074,16 +3074,16 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>ESPECIALIDADES ASFALTICAS BITUMIX CVV</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -3092,12 +3092,12 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970785&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Extracción de áridos, procesamiento y producción de asfalto, Bitumix CVV, Temuco</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3122,16 +3122,16 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>ESPECIALIDADES ASFALTICAS BITUMIX CVV</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -3140,12 +3140,12 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970785&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Modificación del Sistema de Conducción de Efluentes de la Planta de Tratamiento de Aguas Servidas de Temuco (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8738,16 +8738,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Aguas Araucanía S.A</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>500</v>
+        <v>655</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1374050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Modificación del Sistema de Conducción de Efluentes de la Planta de Tratamiento de Aguas Servidas de Temuco (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8786,16 +8786,16 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Aguas Araucanía S.A</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>655</v>
+        <v>500</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8804,12 +8804,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1374050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -12036,7 +12036,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador de Temuco</t>
+          <t>Modificación Plan Regulador Temuco 2000 sub zona C-3 y sub zona C-4</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12069,7 +12069,7 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131922315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -12084,7 +12084,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Temuco 2000 sub zona C-3 y sub zona C-4</t>
+          <t>Modificación Plan Regulador de Temuco</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12117,7 +12117,7 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131922315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -13804,7 +13804,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Terminal Rodovario de la Araucanía</t>
+          <t>Extracción de Áridos Rio Cautin</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -13819,11 +13819,11 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>Inmobiliaria Andina</t>
+          <t>Agrícola y Comercial Pirineos Ltda.</t>
         </is>
       </c>
       <c r="F281" t="n">
-        <v>10</v>
+        <v>610</v>
       </c>
       <c r="G281" t="inlineStr">
         <is>
@@ -13837,7 +13837,7 @@
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
@@ -13852,7 +13852,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Rio Cautin</t>
+          <t>Terminal Rodovario de la Araucanía</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -13867,11 +13867,11 @@
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>Agrícola y Comercial Pirineos Ltda.</t>
+          <t>Inmobiliaria Andina</t>
         </is>
       </c>
       <c r="F282" t="n">
-        <v>610</v>
+        <v>10</v>
       </c>
       <c r="G282" t="inlineStr">
         <is>
@@ -13885,7 +13885,7 @@
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">

--- a/data/Temuco.xlsx
+++ b/data/Temuco.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>24/10/2023</t>
+          <t>02/11/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Extracción de áridos, procesamiento y producción de asfalto, Bitumix CVV, Temuco</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3074,16 +3074,16 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>ESPECIALIDADES ASFALTICAS BITUMIX CVV</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -3092,12 +3092,12 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970785&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Extracción de áridos, procesamiento y producción de asfalto, Bitumix CVV, Temuco</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3122,16 +3122,16 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>ESPECIALIDADES ASFALTICAS BITUMIX CVV</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -3140,12 +3140,12 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970785&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Modificación del Sistema de Conducción de Efluentes de la Planta de Tratamiento de Aguas Servidas de Temuco (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8738,16 +8738,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Aguas Araucanía S.A</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>655</v>
+        <v>500</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1374050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Modificación del Sistema de Conducción de Efluentes de la Planta de Tratamiento de Aguas Servidas de Temuco (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8786,16 +8786,16 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Aguas Araucanía S.A</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>500</v>
+        <v>655</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8804,12 +8804,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1374050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -12036,7 +12036,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Temuco 2000 sub zona C-3 y sub zona C-4</t>
+          <t>Modificación Plan Regulador de Temuco</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12069,7 +12069,7 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131922315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -12084,7 +12084,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador de Temuco</t>
+          <t>Modificación Plan Regulador Temuco 2000 sub zona C-3 y sub zona C-4</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12117,7 +12117,7 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131922315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -13804,7 +13804,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Rio Cautin</t>
+          <t>Terminal Rodovario de la Araucanía</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -13819,11 +13819,11 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>Agrícola y Comercial Pirineos Ltda.</t>
+          <t>Inmobiliaria Andina</t>
         </is>
       </c>
       <c r="F281" t="n">
-        <v>610</v>
+        <v>10</v>
       </c>
       <c r="G281" t="inlineStr">
         <is>
@@ -13837,7 +13837,7 @@
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
@@ -13852,7 +13852,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Terminal Rodovario de la Araucanía</t>
+          <t>Extracción de Áridos Rio Cautin</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -13867,11 +13867,11 @@
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>Inmobiliaria Andina</t>
+          <t>Agrícola y Comercial Pirineos Ltda.</t>
         </is>
       </c>
       <c r="F282" t="n">
-        <v>10</v>
+        <v>610</v>
       </c>
       <c r="G282" t="inlineStr">
         <is>
@@ -13885,7 +13885,7 @@
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
